--- a/biology/Botanique/Monsieur_Louis_Ricard/Monsieur_Louis_Ricard.xlsx
+++ b/biology/Botanique/Monsieur_Louis_Ricard/Monsieur_Louis_Ricard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Monsieur Louis Ricard' est un cultivar de rosier hybride remontant introduit au commerce en 1894 par le rosiériste rouennais[1] Philbert Boutigny[2]. Il est dédié à Louis Ricard, député de la Seine-Inférieure de l'époque et futur ministre de la Justice. Cette rose n'est plus que très rarement cultivée aujourd'hui.
+'Monsieur Louis Ricard' est un cultivar de rosier hybride remontant introduit au commerce en 1894 par le rosiériste rouennais Philbert Boutigny. Il est dédié à Louis Ricard, député de la Seine-Inférieure de l'époque et futur ministre de la Justice. Cette rose n'est plus que très rarement cultivée aujourd'hui.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson est très vigoureux et donne des fleurs globuleuses très grandes (12 cm à 13 cm de diamètre) à l'allure de pivoines[3] et au coloris exceptionnel : un pourpre velouté, foncé et intense avec quelques nuances rouge vermillon. Elles ne s'abîment pas trop au soleil brûlant estival[4],[5]. 
-Il est issu de 'Simon de Saint-Jean' x 'Abel Carrière'[6]. On peut l'admirer à la roseraie des roses de Normandie[7],[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson est très vigoureux et donne des fleurs globuleuses très grandes (12 cm à 13 cm de diamètre) à l'allure de pivoines et au coloris exceptionnel : un pourpre velouté, foncé et intense avec quelques nuances rouge vermillon. Elles ne s'abîment pas trop au soleil brûlant estival,. 
+Il est issu de 'Simon de Saint-Jean' x 'Abel Carrière'. On peut l'admirer à la roseraie des roses de Normandie,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'argent à l'exposition d'horticulture de Rouen, 1891
 Médaille d'argent à l'exposition d'horticulture de Vernon, 1891
